--- a/examples/sources/data/unsolved/to_schedule/2019-04-23.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-23.xlsx
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
         <v>43578</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>43578</v>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
         <v>43578</v>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
         <v>43578</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43578</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2">
         <v>43578</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" s="2">
         <v>43578</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" s="2">
         <v>43578</v>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" s="2">
         <v>43578</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" s="2">
         <v>43578</v>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" s="2">
         <v>43578</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43578</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168">
         <v>1</v>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O174" s="2">
         <v>43578</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195" s="2">
         <v>43578</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <v>1</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202">
         <v>1</v>
